--- a/Assets/06.Table/YumTable.xlsx
+++ b/Assets/06.Table/YumTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C738E5-08D8-44F8-A641-1CCBE89521D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ED87A8-1C62-4A49-8DEC-D67D1FF45170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -56,75 +56,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000극</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30극</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30항</t>
+    <t>10대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,9 +217,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,9 +537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E19"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,16 +572,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>3E+19</v>
+        <v>9.9999999999999999E+64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>35</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -592,16 +589,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>3E+26</v>
+        <v>4.9999999999999997E+65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>35</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -609,16 +606,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>3.0000000000000002E+34</v>
+        <v>9.9999999999999995E+65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <v>35</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -626,16 +623,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>3.0000000000000002E+37</v>
+        <v>1.9999999999999999E+66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>35</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -643,16 +640,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>3.0000000000000001E+38</v>
+        <v>4.9999999999999999E+66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>35</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -660,16 +657,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>1E+40</v>
+        <v>9.9999999999999998E+66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>35</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -677,16 +674,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2.9999999999999998E+41</v>
+        <v>3.0000000000000001E+67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
         <v>35</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -694,16 +691,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>3.0000000000000002E+43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
+        <v>4.9999999999999998E+67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>35</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -711,16 +708,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2.9999999999999999E+44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
+        <v>9.9999999999999995E+67</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>35</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -728,16 +725,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>3.0000000000000001E+45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
+        <v>1.0000000000000001E+69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="1">
         <v>35</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -745,16 +742,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>3.0000000000000002E+46</v>
+        <v>5.0000000000000002E+70</v>
       </c>
       <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1">
         <v>18</v>
-      </c>
-      <c r="D12" s="1">
-        <v>35</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -762,16 +759,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>3.0000000000000002E+49</v>
+        <v>1E+71</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
         <v>35</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -779,16 +776,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>9.9999999999999999E+50</v>
+        <v>2.0000000000000001E+71</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
         <v>35</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -796,16 +793,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>3E+52</v>
+        <v>4.9999999999999997E+71</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1">
         <v>35</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -813,16 +810,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>3E+53</v>
+        <v>8.0000000000000003E+71</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1">
         <v>35</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -830,16 +827,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>2.9999999999999999E+54</v>
+        <v>9.9999999999999994E+71</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1">
         <v>35</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -847,7 +844,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>9E+55</v>
+        <v>4.9999999999999999E+72</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -856,24 +853,24 @@
         <v>35</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
-        <v>2.0000000000000002E+56</v>
+      <c r="B19" s="3">
+        <v>9.9999999999999998E+72</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1">
         <v>35</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/YumTable.xlsx
+++ b/Assets/06.Table/YumTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ED87A8-1C62-4A49-8DEC-D67D1FF45170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D603DBD-9740-400A-B7B6-1EA6834FDBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YumTable" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -598,7 +598,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -615,7 +615,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -632,7 +632,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -649,7 +649,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -666,7 +666,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -683,7 +683,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -700,7 +700,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -717,7 +717,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -734,7 +734,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -751,7 +751,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -768,7 +768,7 @@
         <v>35</v>
       </c>
       <c r="E13" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -785,7 +785,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -802,7 +802,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -819,7 +819,7 @@
         <v>35</v>
       </c>
       <c r="E16" s="1">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -836,7 +836,7 @@
         <v>35</v>
       </c>
       <c r="E17" s="1">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -853,7 +853,7 @@
         <v>35</v>
       </c>
       <c r="E18" s="1">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -870,7 +870,7 @@
         <v>35</v>
       </c>
       <c r="E19" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
